--- a/biology/Zoologie/Hydrophilidae/Hydrophilidae.xlsx
+++ b/biology/Zoologie/Hydrophilidae/Hydrophilidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hydrophilidae sont une famille d'insectes de l'ordre des coléoptères.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (31 août 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (31 août 2014) :
 genre Agna
 genre Ametor
 genre Anacaena
@@ -562,7 +576,7 @@
 genre Sphaeridium
 genre Tectosternum
 genre Tropisternus
-Selon World Register of Marine Species                               (19 décembre 2022)[2] :
+Selon World Register of Marine Species                               (19 décembre 2022) :
 Berosus Leach, 1817
 Cercyon Leach, 1817
 Cyloma Sharp, 1872
@@ -599,9 +613,11 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (22 avr. 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (22 avr. 2014) :
 Epimetopinae Zaitzev, 1908
 Georissinae Laporte, 1840
 Helophorinae Leach, 1815
@@ -611,7 +627,7 @@
 Hydrophilinae Latreille, 1802
 Spercherinae Erichson, 1837
 Sphaeridiinae Latreille, 1802
-Selon ITIS      (31 août 2014)[4] :
+Selon ITIS      (31 août 2014) :
 Horelophinae Hansen, 1991
 Horelophopsinae Hansen, 1997
 Hydrophilinae Latreille, 1802
